--- a/docs/Projektjournal.xlsx
+++ b/docs/Projektjournal.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ecehan/Documents/repositories/TimetrackerClient/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ecehan/Documents/repositories/TimeTracker/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="12340"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="91">
   <si>
     <t>Datum</t>
   </si>
@@ -293,6 +293,15 @@
   </si>
   <si>
     <t>Wir haben mit der Aufsetzung des Projektes angefangen, das Angular 2 Projekt erstellt und das Datenbankscript angefangen</t>
+  </si>
+  <si>
+    <t>Projekt Erstellt</t>
+  </si>
+  <si>
+    <t>Wir hatten unsere vorherige Arbeit auf den lokalen PCs der Schule, anstatt auf unserem Git-Repo. Da die Schul-Pcs neu aufgesetzt worden sind, hatten wir unsere vorherige Arbeit "verloren". Wir arbeiteten daran, dies alles neu aufzusetzen &amp; begannen unser Projekt von vorne.</t>
+  </si>
+  <si>
+    <t>Da Ecehan beschlossen hat, das Projekt nun auf ihrem Laptop umzusetzen, gab es Komplikationen mit den Versionen, da Ecehan keine aktuelle Version von NPM hat, und Angular CLI funktioniert die neue Version nur mit der aktuellsten Version von NPM. Gelöst hatten wir dies, indem wir das Projekt auf den Schul-PCs erstellt haben. Ansonsten verlief die Arbeit gut.</t>
   </si>
 </sst>
 </file>
@@ -780,7 +789,7 @@
   <dimension ref="A2:I98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -814,7 +823,7 @@
       </c>
       <c r="C5" s="6">
         <f>SUM(B8:B5000)/60</f>
-        <v>96.5</v>
+        <v>101</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
@@ -1565,16 +1574,30 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="9"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
+    <row r="43" spans="1:6" ht="65" x14ac:dyDescent="0.15">
+      <c r="A43" s="8">
+        <v>43515</v>
+      </c>
+      <c r="B43" s="9">
+        <v>270</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="9"/>
+      <c r="A44" s="8">
+        <v>43522</v>
+      </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="10"/>
